--- a/Data/北邮道路标记.xlsx
+++ b/Data/北邮道路标记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="25600" windowHeight="12340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,21 +27,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>边（道路）</t>
   </si>
   <si>
-    <t>起始点</t>
+    <t>fromID</t>
   </si>
   <si>
-    <t>终点</t>
+    <t>toID</t>
   </si>
   <si>
-    <t>类型</t>
+    <t>distance</t>
   </si>
   <si>
-    <t>长度</t>
+    <t>congestion</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
 </sst>
 </file>
@@ -1189,18 +1195,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:G313"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D155" sqref="D155"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="K309" sqref="K309"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.0909090909091" customWidth="1"/>
+    <col min="5" max="5" width="12.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1213,11 +1220,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1227,8 +1240,20 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>87</v>
+      </c>
+      <c r="E2">
+        <v>0.7</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1238,8 +1263,20 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>0.4</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1249,8 +1286,20 @@
       <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>199</v>
+      </c>
+      <c r="E4">
+        <v>0.6</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1260,8 +1309,20 @@
       <c r="C5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>245</v>
+      </c>
+      <c r="E5">
+        <v>0.9</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1271,8 +1332,20 @@
       <c r="C6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>346</v>
+      </c>
+      <c r="E6">
+        <v>0.8</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1282,8 +1355,20 @@
       <c r="C7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>432</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1293,8 +1378,20 @@
       <c r="C8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>561</v>
+      </c>
+      <c r="E8">
+        <v>0.6</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1304,8 +1401,20 @@
       <c r="C9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>600</v>
+      </c>
+      <c r="E9">
+        <v>0.6</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1315,8 +1424,20 @@
       <c r="C10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>0.8</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1326,8 +1447,20 @@
       <c r="C11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>179</v>
+      </c>
+      <c r="E11">
+        <v>0.9</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1337,8 +1470,20 @@
       <c r="C12">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>201</v>
+      </c>
+      <c r="E12">
+        <v>0.9</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1348,8 +1493,20 @@
       <c r="C13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>321</v>
+      </c>
+      <c r="E13">
+        <v>0.7</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1359,8 +1516,20 @@
       <c r="C14">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>490</v>
+      </c>
+      <c r="E14">
+        <v>0.2</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1370,8 +1539,20 @@
       <c r="C15">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>500</v>
+      </c>
+      <c r="E15">
+        <v>0.9</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1381,8 +1562,20 @@
       <c r="C16">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>97</v>
+      </c>
+      <c r="E16">
+        <v>0.3</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1392,8 +1585,20 @@
       <c r="C17">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>123</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1403,8 +1608,20 @@
       <c r="C18">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>389</v>
+      </c>
+      <c r="E18">
+        <v>0.3</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1414,8 +1631,20 @@
       <c r="C19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>456</v>
+      </c>
+      <c r="E19">
+        <v>0.6</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1425,8 +1654,20 @@
       <c r="C20">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>567</v>
+      </c>
+      <c r="E20">
+        <v>0.8</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1436,8 +1677,20 @@
       <c r="C21">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>89</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1447,8 +1700,20 @@
       <c r="C22">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>90</v>
+      </c>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1458,8 +1723,20 @@
       <c r="C23">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>200</v>
+      </c>
+      <c r="E23">
+        <v>0.9</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1469,8 +1746,20 @@
       <c r="C24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>300</v>
+      </c>
+      <c r="E24">
+        <v>0.3</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1480,8 +1769,20 @@
       <c r="C25">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <v>400</v>
+      </c>
+      <c r="E25">
+        <v>0.7</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1491,8 +1792,20 @@
       <c r="C26">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <v>500</v>
+      </c>
+      <c r="E26">
+        <v>0.4</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1502,8 +1815,20 @@
       <c r="C27">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>600</v>
+      </c>
+      <c r="E27">
+        <v>0.4</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1513,8 +1838,20 @@
       <c r="C28">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <v>55</v>
+      </c>
+      <c r="E28">
+        <v>0.6</v>
+      </c>
+      <c r="F28">
+        <v>20</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1524,8 +1861,20 @@
       <c r="C29">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <v>99</v>
+      </c>
+      <c r="E29">
+        <v>0.6</v>
+      </c>
+      <c r="F29">
+        <v>20</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1535,8 +1884,20 @@
       <c r="C30">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <v>150</v>
+      </c>
+      <c r="E30">
+        <v>0.2</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1546,8 +1907,20 @@
       <c r="C31">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <v>250</v>
+      </c>
+      <c r="E31">
+        <v>0.8</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1557,8 +1930,20 @@
       <c r="C32">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <v>350</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+      <c r="F32">
+        <v>20</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1568,8 +1953,20 @@
       <c r="C33">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <v>450</v>
+      </c>
+      <c r="E33">
+        <v>0.9</v>
+      </c>
+      <c r="F33">
+        <v>20</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1579,8 +1976,20 @@
       <c r="C34">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34">
+        <v>550</v>
+      </c>
+      <c r="E34">
+        <v>0.3</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1590,8 +1999,20 @@
       <c r="C35">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35">
+        <v>51</v>
+      </c>
+      <c r="E35">
+        <v>0.7</v>
+      </c>
+      <c r="F35">
+        <v>20</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1601,8 +2022,20 @@
       <c r="C36">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36">
+        <v>101</v>
+      </c>
+      <c r="E36">
+        <v>0.3</v>
+      </c>
+      <c r="F36">
+        <v>20</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1612,8 +2045,20 @@
       <c r="C37">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>151</v>
+      </c>
+      <c r="E37">
+        <v>0.4</v>
+      </c>
+      <c r="F37">
+        <v>20</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1623,8 +2068,20 @@
       <c r="C38">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>251</v>
+      </c>
+      <c r="E38">
+        <v>0.6</v>
+      </c>
+      <c r="F38">
+        <v>20</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1634,8 +2091,20 @@
       <c r="C39">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39">
+        <v>351</v>
+      </c>
+      <c r="E39">
+        <v>0.3</v>
+      </c>
+      <c r="F39">
+        <v>20</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1645,8 +2114,20 @@
       <c r="C40">
         <v>14</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40">
+        <v>451</v>
+      </c>
+      <c r="E40">
+        <v>0.4</v>
+      </c>
+      <c r="F40">
+        <v>20</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1656,8 +2137,20 @@
       <c r="C41">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41">
+        <v>551</v>
+      </c>
+      <c r="E41">
+        <v>0.8</v>
+      </c>
+      <c r="F41">
+        <v>20</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1667,8 +2160,20 @@
       <c r="C42">
         <v>36</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>601</v>
+      </c>
+      <c r="E42">
+        <v>0.5</v>
+      </c>
+      <c r="F42">
+        <v>20</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1678,8 +2183,20 @@
       <c r="C43">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43">
+        <v>49</v>
+      </c>
+      <c r="E43">
+        <v>0.9</v>
+      </c>
+      <c r="F43">
+        <v>20</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1689,8 +2206,20 @@
       <c r="C44">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44">
+        <v>99</v>
+      </c>
+      <c r="E44">
+        <v>0.3</v>
+      </c>
+      <c r="F44">
+        <v>20</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1700,8 +2229,20 @@
       <c r="C45">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>149</v>
+      </c>
+      <c r="E45">
+        <v>0.7</v>
+      </c>
+      <c r="F45">
+        <v>20</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1711,8 +2252,20 @@
       <c r="C46">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46">
+        <v>199</v>
+      </c>
+      <c r="E46">
+        <v>0.4</v>
+      </c>
+      <c r="F46">
+        <v>20</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1722,8 +2275,20 @@
       <c r="C47">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47">
+        <v>249</v>
+      </c>
+      <c r="E47">
+        <v>0.4</v>
+      </c>
+      <c r="F47">
+        <v>20</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1733,8 +2298,20 @@
       <c r="C48">
         <v>55</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48">
+        <v>349</v>
+      </c>
+      <c r="E48">
+        <v>0.6</v>
+      </c>
+      <c r="F48">
+        <v>20</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1744,8 +2321,20 @@
       <c r="C49">
         <v>37</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49">
+        <v>449</v>
+      </c>
+      <c r="E49">
+        <v>0.3</v>
+      </c>
+      <c r="F49">
+        <v>20</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1755,8 +2344,20 @@
       <c r="C50">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50">
+        <v>599</v>
+      </c>
+      <c r="E50">
+        <v>0.2</v>
+      </c>
+      <c r="F50">
+        <v>20</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1766,8 +2367,20 @@
       <c r="C51">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>52</v>
+      </c>
+      <c r="E51">
+        <v>0.8</v>
+      </c>
+      <c r="F51">
+        <v>20</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1777,8 +2390,20 @@
       <c r="C52">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>102</v>
+      </c>
+      <c r="E52">
+        <v>0.5</v>
+      </c>
+      <c r="F52">
+        <v>20</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1788,8 +2413,20 @@
       <c r="C53">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53">
+        <v>152</v>
+      </c>
+      <c r="E53">
+        <v>0.7</v>
+      </c>
+      <c r="F53">
+        <v>20</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1799,8 +2436,20 @@
       <c r="C54">
         <v>23</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54">
+        <v>202</v>
+      </c>
+      <c r="E54">
+        <v>0.8</v>
+      </c>
+      <c r="F54">
+        <v>20</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1810,8 +2459,20 @@
       <c r="C55">
         <v>21</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55">
+        <v>302</v>
+      </c>
+      <c r="E55">
+        <v>0.4</v>
+      </c>
+      <c r="F55">
+        <v>20</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1821,8 +2482,20 @@
       <c r="C56">
         <v>22</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56">
+        <v>402</v>
+      </c>
+      <c r="E56">
+        <v>0.6</v>
+      </c>
+      <c r="F56">
+        <v>20</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1832,8 +2505,20 @@
       <c r="C57">
         <v>23</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>502</v>
+      </c>
+      <c r="E57">
+        <v>0.3</v>
+      </c>
+      <c r="F57">
+        <v>20</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1843,8 +2528,20 @@
       <c r="C58">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58">
+        <v>602</v>
+      </c>
+      <c r="E58">
+        <v>0.4</v>
+      </c>
+      <c r="F58">
+        <v>20</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1854,8 +2551,20 @@
       <c r="C59">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59">
+        <v>53</v>
+      </c>
+      <c r="E59">
+        <v>0.9</v>
+      </c>
+      <c r="F59">
+        <v>20</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1865,8 +2574,20 @@
       <c r="C60">
         <v>24</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60">
+        <v>103</v>
+      </c>
+      <c r="E60">
+        <v>0.5</v>
+      </c>
+      <c r="F60">
+        <v>20</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1876,8 +2597,20 @@
       <c r="C61">
         <v>25</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61">
+        <v>153</v>
+      </c>
+      <c r="E61">
+        <v>0.8</v>
+      </c>
+      <c r="F61">
+        <v>20</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1887,8 +2620,20 @@
       <c r="C62">
         <v>25</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62">
+        <v>203</v>
+      </c>
+      <c r="E62">
+        <v>0.5</v>
+      </c>
+      <c r="F62">
+        <v>20</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1898,8 +2643,20 @@
       <c r="C63">
         <v>56</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63">
+        <v>303</v>
+      </c>
+      <c r="E63">
+        <v>0.7</v>
+      </c>
+      <c r="F63">
+        <v>20</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1909,8 +2666,20 @@
       <c r="C64">
         <v>43</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64">
+        <v>403</v>
+      </c>
+      <c r="E64">
+        <v>0.7</v>
+      </c>
+      <c r="F64">
+        <v>20</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1920,8 +2689,20 @@
       <c r="C65">
         <v>27</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65">
+        <v>503</v>
+      </c>
+      <c r="E65">
+        <v>0.4</v>
+      </c>
+      <c r="F65">
+        <v>20</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1931,8 +2712,20 @@
       <c r="C66">
         <v>26</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66">
+        <v>603</v>
+      </c>
+      <c r="E66">
+        <v>0.6</v>
+      </c>
+      <c r="F66">
+        <v>20</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1942,8 +2735,20 @@
       <c r="C67">
         <v>27</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67">
+        <v>54</v>
+      </c>
+      <c r="E67">
+        <v>0.5</v>
+      </c>
+      <c r="F67">
+        <v>20</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1953,8 +2758,20 @@
       <c r="C68">
         <v>43</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68">
+        <v>104</v>
+      </c>
+      <c r="E68">
+        <v>0.6</v>
+      </c>
+      <c r="F68">
+        <v>20</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1964,8 +2781,20 @@
       <c r="C69">
         <v>52</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69">
+        <v>154</v>
+      </c>
+      <c r="E69">
+        <v>0.9</v>
+      </c>
+      <c r="F69">
+        <v>20</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1975,8 +2804,20 @@
       <c r="C70">
         <v>56</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70">
+        <v>204</v>
+      </c>
+      <c r="E70">
+        <v>0.4</v>
+      </c>
+      <c r="F70">
+        <v>20</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1986,8 +2827,20 @@
       <c r="C71">
         <v>53</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71">
+        <v>304</v>
+      </c>
+      <c r="E71">
+        <v>0.8</v>
+      </c>
+      <c r="F71">
+        <v>20</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1997,8 +2850,20 @@
       <c r="C72">
         <v>29</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72">
+        <v>404</v>
+      </c>
+      <c r="E72">
+        <v>0.4</v>
+      </c>
+      <c r="F72">
+        <v>20</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2008,8 +2873,20 @@
       <c r="C73">
         <v>30</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73">
+        <v>504</v>
+      </c>
+      <c r="E73">
+        <v>0.7</v>
+      </c>
+      <c r="F73">
+        <v>20</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2019,8 +2896,20 @@
       <c r="C74">
         <v>31</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74">
+        <v>604</v>
+      </c>
+      <c r="E74">
+        <v>0.4</v>
+      </c>
+      <c r="F74">
+        <v>20</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2030,8 +2919,20 @@
       <c r="C75">
         <v>32</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75">
+        <v>70</v>
+      </c>
+      <c r="E75">
+        <v>0.9</v>
+      </c>
+      <c r="F75">
+        <v>20</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2041,8 +2942,20 @@
       <c r="C76">
         <v>32</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>120</v>
+      </c>
+      <c r="E76">
+        <v>0.6</v>
+      </c>
+      <c r="F76">
+        <v>20</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2052,8 +2965,20 @@
       <c r="C77">
         <v>33</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77">
+        <v>180</v>
+      </c>
+      <c r="E77">
+        <v>0.5</v>
+      </c>
+      <c r="F77">
+        <v>20</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2063,8 +2988,20 @@
       <c r="C78">
         <v>33</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78">
+        <v>240</v>
+      </c>
+      <c r="E78">
+        <v>0.5</v>
+      </c>
+      <c r="F78">
+        <v>20</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2074,8 +3011,20 @@
       <c r="C79">
         <v>54</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79">
+        <v>300</v>
+      </c>
+      <c r="E79">
+        <v>0.6</v>
+      </c>
+      <c r="F79">
+        <v>20</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2085,8 +3034,20 @@
       <c r="C80">
         <v>34</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80">
+        <v>360</v>
+      </c>
+      <c r="E80">
+        <v>0.8</v>
+      </c>
+      <c r="F80">
+        <v>20</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2096,8 +3057,20 @@
       <c r="C81">
         <v>35</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81">
+        <v>420</v>
+      </c>
+      <c r="E81">
+        <v>0.8</v>
+      </c>
+      <c r="F81">
+        <v>20</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2107,8 +3080,20 @@
       <c r="C82">
         <v>54</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82">
+        <v>480</v>
+      </c>
+      <c r="E82">
+        <v>0.4</v>
+      </c>
+      <c r="F82">
+        <v>20</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2118,8 +3103,20 @@
       <c r="C83">
         <v>35</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83">
+        <v>540</v>
+      </c>
+      <c r="E83">
+        <v>0.7</v>
+      </c>
+      <c r="F83">
+        <v>20</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>82</v>
       </c>
@@ -2129,8 +3126,20 @@
       <c r="C84">
         <v>36</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84">
+        <v>600</v>
+      </c>
+      <c r="E84">
+        <v>0.2</v>
+      </c>
+      <c r="F84">
+        <v>20</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>83</v>
       </c>
@@ -2140,8 +3149,20 @@
       <c r="C85">
         <v>46</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85">
+        <v>65</v>
+      </c>
+      <c r="E85">
+        <v>0.9</v>
+      </c>
+      <c r="F85">
+        <v>20</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>84</v>
       </c>
@@ -2151,8 +3172,20 @@
       <c r="C86">
         <v>57</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86">
+        <v>115</v>
+      </c>
+      <c r="E86">
+        <v>0.3</v>
+      </c>
+      <c r="F86">
+        <v>20</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>85</v>
       </c>
@@ -2162,8 +3195,20 @@
       <c r="C87">
         <v>37</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87">
+        <v>165</v>
+      </c>
+      <c r="E87">
+        <v>0.5</v>
+      </c>
+      <c r="F87">
+        <v>20</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>86</v>
       </c>
@@ -2173,8 +3218,20 @@
       <c r="C88">
         <v>38</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88">
+        <v>215</v>
+      </c>
+      <c r="E88">
+        <v>0.6</v>
+      </c>
+      <c r="F88">
+        <v>20</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>87</v>
       </c>
@@ -2184,8 +3241,20 @@
       <c r="C89">
         <v>38</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89">
+        <v>265</v>
+      </c>
+      <c r="E89">
+        <v>0.6</v>
+      </c>
+      <c r="F89">
+        <v>20</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>88</v>
       </c>
@@ -2195,8 +3264,20 @@
       <c r="C90">
         <v>55</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90">
+        <v>315</v>
+      </c>
+      <c r="E90">
+        <v>0.8</v>
+      </c>
+      <c r="F90">
+        <v>20</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>89</v>
       </c>
@@ -2206,8 +3287,20 @@
       <c r="C91">
         <v>39</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91">
+        <v>365</v>
+      </c>
+      <c r="E91">
+        <v>0.7</v>
+      </c>
+      <c r="F91">
+        <v>20</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>90</v>
       </c>
@@ -2217,8 +3310,20 @@
       <c r="C92">
         <v>39</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92">
+        <v>415</v>
+      </c>
+      <c r="E92">
+        <v>0.5</v>
+      </c>
+      <c r="F92">
+        <v>20</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>91</v>
       </c>
@@ -2228,8 +3333,20 @@
       <c r="C93">
         <v>55</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93">
+        <v>465</v>
+      </c>
+      <c r="E93">
+        <v>0.9</v>
+      </c>
+      <c r="F93">
+        <v>20</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>92</v>
       </c>
@@ -2239,8 +3356,20 @@
       <c r="C94">
         <v>40</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94">
+        <v>515</v>
+      </c>
+      <c r="E94">
+        <v>0.3</v>
+      </c>
+      <c r="F94">
+        <v>20</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>93</v>
       </c>
@@ -2250,8 +3379,20 @@
       <c r="C95">
         <v>48</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95">
+        <v>61</v>
+      </c>
+      <c r="E95">
+        <v>0.7</v>
+      </c>
+      <c r="F95">
+        <v>20</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>94</v>
       </c>
@@ -2261,8 +3402,20 @@
       <c r="C96">
         <v>57</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>111</v>
+      </c>
+      <c r="E96">
+        <v>0.4</v>
+      </c>
+      <c r="F96">
+        <v>20</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>95</v>
       </c>
@@ -2272,8 +3425,20 @@
       <c r="C97">
         <v>50</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97">
+        <v>161</v>
+      </c>
+      <c r="E97">
+        <v>0.6</v>
+      </c>
+      <c r="F97">
+        <v>20</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>96</v>
       </c>
@@ -2283,8 +3448,20 @@
       <c r="C98">
         <v>41</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98">
+        <v>211</v>
+      </c>
+      <c r="E98">
+        <v>0.9</v>
+      </c>
+      <c r="F98">
+        <v>20</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>97</v>
       </c>
@@ -2294,8 +3471,20 @@
       <c r="C99">
         <v>42</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99">
+        <v>261</v>
+      </c>
+      <c r="E99">
+        <v>0.8</v>
+      </c>
+      <c r="F99">
+        <v>20</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>98</v>
       </c>
@@ -2305,8 +3494,20 @@
       <c r="C100">
         <v>51</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>311</v>
+      </c>
+      <c r="E100">
+        <v>0.5</v>
+      </c>
+      <c r="F100">
+        <v>20</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>99</v>
       </c>
@@ -2316,8 +3517,20 @@
       <c r="C101">
         <v>42</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101">
+        <v>361</v>
+      </c>
+      <c r="E101">
+        <v>0.6</v>
+      </c>
+      <c r="F101">
+        <v>20</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>100</v>
       </c>
@@ -2327,8 +3540,20 @@
       <c r="C102">
         <v>56</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>411</v>
+      </c>
+      <c r="E102">
+        <v>0.6</v>
+      </c>
+      <c r="F102">
+        <v>20</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>101</v>
       </c>
@@ -2338,8 +3563,20 @@
       <c r="C103">
         <v>43</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>461</v>
+      </c>
+      <c r="E103">
+        <v>0.8</v>
+      </c>
+      <c r="F103">
+        <v>20</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>102</v>
       </c>
@@ -2349,8 +3586,20 @@
       <c r="C104">
         <v>51</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104">
+        <v>511</v>
+      </c>
+      <c r="E104">
+        <v>0.9</v>
+      </c>
+      <c r="F104">
+        <v>20</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>103</v>
       </c>
@@ -2360,8 +3609,20 @@
       <c r="C105">
         <v>43</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105">
+        <v>56</v>
+      </c>
+      <c r="E105">
+        <v>0.9</v>
+      </c>
+      <c r="F105">
+        <v>20</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>104</v>
       </c>
@@ -2371,8 +3632,20 @@
       <c r="C106">
         <v>53</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106">
+        <v>106</v>
+      </c>
+      <c r="E106">
+        <v>0.7</v>
+      </c>
+      <c r="F106">
+        <v>20</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>105</v>
       </c>
@@ -2382,8 +3655,20 @@
       <c r="C107">
         <v>50</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107">
+        <v>156</v>
+      </c>
+      <c r="E107">
+        <v>0.2</v>
+      </c>
+      <c r="F107">
+        <v>20</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>106</v>
       </c>
@@ -2393,8 +3678,20 @@
       <c r="C108">
         <v>50</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108">
+        <v>206</v>
+      </c>
+      <c r="E108">
+        <v>0.9</v>
+      </c>
+      <c r="F108">
+        <v>20</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>107</v>
       </c>
@@ -2404,8 +3701,20 @@
       <c r="C109">
         <v>56</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109">
+        <v>256</v>
+      </c>
+      <c r="E109">
+        <v>0.3</v>
+      </c>
+      <c r="F109">
+        <v>20</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>108</v>
       </c>
@@ -2415,8 +3724,20 @@
       <c r="C110">
         <v>52</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110">
+        <v>306</v>
+      </c>
+      <c r="E110">
+        <v>0.5</v>
+      </c>
+      <c r="F110">
+        <v>20</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>109</v>
       </c>
@@ -2426,8 +3747,20 @@
       <c r="C111">
         <v>53</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111">
+        <v>87</v>
+      </c>
+      <c r="E111">
+        <v>0.3</v>
+      </c>
+      <c r="F111">
+        <v>20</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>110</v>
       </c>
@@ -2437,8 +3770,20 @@
       <c r="C112">
         <v>48</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112">
+        <v>50</v>
+      </c>
+      <c r="E112">
+        <v>0.6</v>
+      </c>
+      <c r="F112">
+        <v>20</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>111</v>
       </c>
@@ -2448,8 +3793,20 @@
       <c r="C113">
         <v>46</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113">
+        <v>199</v>
+      </c>
+      <c r="E113">
+        <v>0.8</v>
+      </c>
+      <c r="F113">
+        <v>20</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>112</v>
       </c>
@@ -2459,8 +3816,20 @@
       <c r="C114">
         <v>47</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114">
+        <v>245</v>
+      </c>
+      <c r="E114">
+        <v>0.5</v>
+      </c>
+      <c r="F114">
+        <v>20</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>113</v>
       </c>
@@ -2470,8 +3839,20 @@
       <c r="C115">
         <v>30</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115">
+        <v>346</v>
+      </c>
+      <c r="E115">
+        <v>0.5</v>
+      </c>
+      <c r="F115">
+        <v>20</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>114</v>
       </c>
@@ -2481,8 +3862,20 @@
       <c r="C116">
         <v>32</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116">
+        <v>432</v>
+      </c>
+      <c r="E116">
+        <v>0.9</v>
+      </c>
+      <c r="F116">
+        <v>20</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>115</v>
       </c>
@@ -2492,8 +3885,20 @@
       <c r="C117">
         <v>46</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117">
+        <v>561</v>
+      </c>
+      <c r="E117">
+        <v>0.3</v>
+      </c>
+      <c r="F117">
+        <v>20</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>116</v>
       </c>
@@ -2503,8 +3908,20 @@
       <c r="C118">
         <v>47</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118">
+        <v>600</v>
+      </c>
+      <c r="E118">
+        <v>0.7</v>
+      </c>
+      <c r="F118">
+        <v>20</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>117</v>
       </c>
@@ -2514,8 +3931,20 @@
       <c r="C119">
         <v>57</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119">
+        <v>45</v>
+      </c>
+      <c r="E119">
+        <v>0.4</v>
+      </c>
+      <c r="F119">
+        <v>20</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>118</v>
       </c>
@@ -2525,8 +3954,20 @@
       <c r="C120">
         <v>48</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120">
+        <v>179</v>
+      </c>
+      <c r="E120">
+        <v>0.4</v>
+      </c>
+      <c r="F120">
+        <v>20</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>119</v>
       </c>
@@ -2536,8 +3977,20 @@
       <c r="C121">
         <v>49</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121">
+        <v>201</v>
+      </c>
+      <c r="E121">
+        <v>0.6</v>
+      </c>
+      <c r="F121">
+        <v>20</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>120</v>
       </c>
@@ -2547,8 +4000,20 @@
       <c r="C122">
         <v>38</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122">
+        <v>321</v>
+      </c>
+      <c r="E122">
+        <v>0.6</v>
+      </c>
+      <c r="F122">
+        <v>20</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>121</v>
       </c>
@@ -2558,8 +4023,20 @@
       <c r="C123">
         <v>48</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123">
+        <v>490</v>
+      </c>
+      <c r="E123">
+        <v>0.2</v>
+      </c>
+      <c r="F123">
+        <v>20</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>122</v>
       </c>
@@ -2569,8 +4046,20 @@
       <c r="C124">
         <v>49</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124">
+        <v>500</v>
+      </c>
+      <c r="E124">
+        <v>0.8</v>
+      </c>
+      <c r="F124">
+        <v>20</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>123</v>
       </c>
@@ -2580,8 +4069,20 @@
       <c r="C125">
         <v>49</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125">
+        <v>97</v>
+      </c>
+      <c r="E125">
+        <v>0.5</v>
+      </c>
+      <c r="F125">
+        <v>20</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>124</v>
       </c>
@@ -2591,8 +4092,20 @@
       <c r="C126">
         <v>50</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126">
+        <v>123</v>
+      </c>
+      <c r="E126">
+        <v>0.9</v>
+      </c>
+      <c r="F126">
+        <v>20</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>125</v>
       </c>
@@ -2602,8 +4115,20 @@
       <c r="C127">
         <v>50</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127">
+        <v>389</v>
+      </c>
+      <c r="E127">
+        <v>0.3</v>
+      </c>
+      <c r="F127">
+        <v>20</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>126</v>
       </c>
@@ -2613,8 +4138,20 @@
       <c r="C128">
         <v>57</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128">
+        <v>456</v>
+      </c>
+      <c r="E128">
+        <v>0.7</v>
+      </c>
+      <c r="F128">
+        <v>20</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>127</v>
       </c>
@@ -2624,8 +4161,20 @@
       <c r="C129">
         <v>51</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129">
+        <v>567</v>
+      </c>
+      <c r="E129">
+        <v>0.3</v>
+      </c>
+      <c r="F129">
+        <v>20</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>128</v>
       </c>
@@ -2635,8 +4184,20 @@
       <c r="C130">
         <v>53</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130">
+        <v>89</v>
+      </c>
+      <c r="E130">
+        <v>0.4</v>
+      </c>
+      <c r="F130">
+        <v>20</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>129</v>
       </c>
@@ -2646,8 +4207,20 @@
       <c r="C131">
         <v>52</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131">
+        <v>90</v>
+      </c>
+      <c r="E131">
+        <v>0.6</v>
+      </c>
+      <c r="F131">
+        <v>20</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>130</v>
       </c>
@@ -2657,8 +4230,20 @@
       <c r="C132">
         <v>53</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132">
+        <v>200</v>
+      </c>
+      <c r="E132">
+        <v>0.3</v>
+      </c>
+      <c r="F132">
+        <v>20</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>131</v>
       </c>
@@ -2668,8 +4253,20 @@
       <c r="C133">
         <v>53</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133">
+        <v>300</v>
+      </c>
+      <c r="E133">
+        <v>0.4</v>
+      </c>
+      <c r="F133">
+        <v>20</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>132</v>
       </c>
@@ -2679,8 +4276,20 @@
       <c r="C134">
         <v>7</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="D134">
+        <v>400</v>
+      </c>
+      <c r="E134">
+        <v>0.8</v>
+      </c>
+      <c r="F134">
+        <v>20</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>133</v>
       </c>
@@ -2690,8 +4299,20 @@
       <c r="C135">
         <v>54</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="D135">
+        <v>500</v>
+      </c>
+      <c r="E135">
+        <v>0.5</v>
+      </c>
+      <c r="F135">
+        <v>20</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>134</v>
       </c>
@@ -2701,8 +4322,20 @@
       <c r="C136">
         <v>19</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136">
+        <v>600</v>
+      </c>
+      <c r="E136">
+        <v>0.9</v>
+      </c>
+      <c r="F136">
+        <v>20</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137">
         <v>135</v>
       </c>
@@ -2712,8 +4345,20 @@
       <c r="C137">
         <v>56</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137">
+        <v>55</v>
+      </c>
+      <c r="E137">
+        <v>0.3</v>
+      </c>
+      <c r="F137">
+        <v>20</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>136</v>
       </c>
@@ -2723,8 +4368,20 @@
       <c r="C138">
         <v>22</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138">
+        <v>99</v>
+      </c>
+      <c r="E138">
+        <v>0.7</v>
+      </c>
+      <c r="F138">
+        <v>20</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>137</v>
       </c>
@@ -2734,8 +4391,20 @@
       <c r="C139">
         <v>55</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139">
+        <v>150</v>
+      </c>
+      <c r="E139">
+        <v>0.4</v>
+      </c>
+      <c r="F139">
+        <v>20</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140">
         <v>138</v>
       </c>
@@ -2745,8 +4414,20 @@
       <c r="C140">
         <v>40</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140">
+        <v>250</v>
+      </c>
+      <c r="E140">
+        <v>0.4</v>
+      </c>
+      <c r="F140">
+        <v>20</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>139</v>
       </c>
@@ -2756,8 +4437,20 @@
       <c r="C141">
         <v>28</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141">
+        <v>350</v>
+      </c>
+      <c r="E141">
+        <v>0.6</v>
+      </c>
+      <c r="F141">
+        <v>20</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142">
         <v>140</v>
       </c>
@@ -2767,8 +4460,20 @@
       <c r="C142">
         <v>58</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142">
+        <v>450</v>
+      </c>
+      <c r="E142">
+        <v>0.3</v>
+      </c>
+      <c r="F142">
+        <v>20</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143">
         <v>141</v>
       </c>
@@ -2778,8 +4483,20 @@
       <c r="C143">
         <v>58</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143">
+        <v>550</v>
+      </c>
+      <c r="E143">
+        <v>0.2</v>
+      </c>
+      <c r="F143">
+        <v>20</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>142</v>
       </c>
@@ -2789,8 +4506,20 @@
       <c r="C144">
         <v>58</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="D144">
+        <v>51</v>
+      </c>
+      <c r="E144">
+        <v>0.8</v>
+      </c>
+      <c r="F144">
+        <v>20</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145">
         <v>143</v>
       </c>
@@ -2800,8 +4529,20 @@
       <c r="C145">
         <v>58</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="D145">
+        <v>101</v>
+      </c>
+      <c r="E145">
+        <v>0.5</v>
+      </c>
+      <c r="F145">
+        <v>20</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>144</v>
       </c>
@@ -2811,8 +4552,20 @@
       <c r="C146">
         <v>58</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146">
+        <v>151</v>
+      </c>
+      <c r="E146">
+        <v>0.7</v>
+      </c>
+      <c r="F146">
+        <v>20</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147">
         <v>145</v>
       </c>
@@ -2822,8 +4575,20 @@
       <c r="C147">
         <v>59</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147">
+        <v>251</v>
+      </c>
+      <c r="E147">
+        <v>0.8</v>
+      </c>
+      <c r="F147">
+        <v>20</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>146</v>
       </c>
@@ -2833,8 +4598,20 @@
       <c r="C148">
         <v>59</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="D148">
+        <v>351</v>
+      </c>
+      <c r="E148">
+        <v>0.4</v>
+      </c>
+      <c r="F148">
+        <v>20</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149">
         <v>147</v>
       </c>
@@ -2844,8 +4621,20 @@
       <c r="C149">
         <v>59</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="D149">
+        <v>451</v>
+      </c>
+      <c r="E149">
+        <v>0.6</v>
+      </c>
+      <c r="F149">
+        <v>20</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150">
         <v>148</v>
       </c>
@@ -2855,8 +4644,20 @@
       <c r="C150">
         <v>60</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="D150">
+        <v>551</v>
+      </c>
+      <c r="E150">
+        <v>0.3</v>
+      </c>
+      <c r="F150">
+        <v>20</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>149</v>
       </c>
@@ -2866,8 +4667,20 @@
       <c r="C151">
         <v>60</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="D151">
+        <v>601</v>
+      </c>
+      <c r="E151">
+        <v>0.4</v>
+      </c>
+      <c r="F151">
+        <v>20</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>150</v>
       </c>
@@ -2877,8 +4690,20 @@
       <c r="C152">
         <v>60</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="D152">
+        <v>49</v>
+      </c>
+      <c r="E152">
+        <v>0.9</v>
+      </c>
+      <c r="F152">
+        <v>20</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>151</v>
       </c>
@@ -2888,8 +4713,20 @@
       <c r="C153">
         <v>60</v>
       </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="D153">
+        <v>99</v>
+      </c>
+      <c r="E153">
+        <v>0.5</v>
+      </c>
+      <c r="F153">
+        <v>20</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>152</v>
       </c>
@@ -2899,8 +4736,20 @@
       <c r="C154">
         <v>61</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="D154">
+        <v>149</v>
+      </c>
+      <c r="E154">
+        <v>0.8</v>
+      </c>
+      <c r="F154">
+        <v>20</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>153</v>
       </c>
@@ -2910,8 +4759,20 @@
       <c r="C155">
         <v>61</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="D155">
+        <v>199</v>
+      </c>
+      <c r="E155">
+        <v>0.5</v>
+      </c>
+      <c r="F155">
+        <v>20</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>154</v>
       </c>
@@ -2921,8 +4782,20 @@
       <c r="C156">
         <v>61</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
+      <c r="D156">
+        <v>249</v>
+      </c>
+      <c r="E156">
+        <v>0.7</v>
+      </c>
+      <c r="F156">
+        <v>20</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>155</v>
       </c>
@@ -2931,6 +4804,3606 @@
       </c>
       <c r="C157">
         <v>61</v>
+      </c>
+      <c r="D157">
+        <v>349</v>
+      </c>
+      <c r="E157">
+        <v>0.7</v>
+      </c>
+      <c r="F157">
+        <v>20</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158">
+        <v>0</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>87</v>
+      </c>
+      <c r="E158">
+        <v>0.7</v>
+      </c>
+      <c r="F158">
+        <v>40</v>
+      </c>
+      <c r="G158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>2</v>
+      </c>
+      <c r="D159">
+        <v>50</v>
+      </c>
+      <c r="E159">
+        <v>0.4</v>
+      </c>
+      <c r="F159">
+        <v>40</v>
+      </c>
+      <c r="G159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160">
+        <v>2</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+      <c r="D160">
+        <v>199</v>
+      </c>
+      <c r="E160">
+        <v>0.6</v>
+      </c>
+      <c r="F160">
+        <v>40</v>
+      </c>
+      <c r="G160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161">
+        <v>3</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>6</v>
+      </c>
+      <c r="D161">
+        <v>245</v>
+      </c>
+      <c r="E161">
+        <v>0.9</v>
+      </c>
+      <c r="F161">
+        <v>40</v>
+      </c>
+      <c r="G161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162">
+        <v>4</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>7</v>
+      </c>
+      <c r="D162">
+        <v>346</v>
+      </c>
+      <c r="E162">
+        <v>0.8</v>
+      </c>
+      <c r="F162">
+        <v>40</v>
+      </c>
+      <c r="G162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163">
+        <v>5</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+      <c r="D163">
+        <v>432</v>
+      </c>
+      <c r="E163">
+        <v>0.5</v>
+      </c>
+      <c r="F163">
+        <v>40</v>
+      </c>
+      <c r="G163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164">
+        <v>6</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+      <c r="D164">
+        <v>561</v>
+      </c>
+      <c r="E164">
+        <v>0.6</v>
+      </c>
+      <c r="F164">
+        <v>40</v>
+      </c>
+      <c r="G164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165">
+        <v>7</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>4</v>
+      </c>
+      <c r="D165">
+        <v>600</v>
+      </c>
+      <c r="E165">
+        <v>0.6</v>
+      </c>
+      <c r="F165">
+        <v>40</v>
+      </c>
+      <c r="G165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166">
+        <v>8</v>
+      </c>
+      <c r="B166">
+        <v>2</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+      <c r="D166">
+        <v>45</v>
+      </c>
+      <c r="E166">
+        <v>0.8</v>
+      </c>
+      <c r="F166">
+        <v>40</v>
+      </c>
+      <c r="G166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167">
+        <v>9</v>
+      </c>
+      <c r="B167">
+        <v>2</v>
+      </c>
+      <c r="C167">
+        <v>4</v>
+      </c>
+      <c r="D167">
+        <v>179</v>
+      </c>
+      <c r="E167">
+        <v>0.9</v>
+      </c>
+      <c r="F167">
+        <v>40</v>
+      </c>
+      <c r="G167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168">
+        <v>10</v>
+      </c>
+      <c r="B168">
+        <v>2</v>
+      </c>
+      <c r="C168">
+        <v>6</v>
+      </c>
+      <c r="D168">
+        <v>201</v>
+      </c>
+      <c r="E168">
+        <v>0.9</v>
+      </c>
+      <c r="F168">
+        <v>40</v>
+      </c>
+      <c r="G168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169">
+        <v>11</v>
+      </c>
+      <c r="B169">
+        <v>3</v>
+      </c>
+      <c r="C169">
+        <v>4</v>
+      </c>
+      <c r="D169">
+        <v>321</v>
+      </c>
+      <c r="E169">
+        <v>0.7</v>
+      </c>
+      <c r="F169">
+        <v>40</v>
+      </c>
+      <c r="G169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170">
+        <v>12</v>
+      </c>
+      <c r="B170">
+        <v>3</v>
+      </c>
+      <c r="C170">
+        <v>6</v>
+      </c>
+      <c r="D170">
+        <v>490</v>
+      </c>
+      <c r="E170">
+        <v>0.2</v>
+      </c>
+      <c r="F170">
+        <v>40</v>
+      </c>
+      <c r="G170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171">
+        <v>13</v>
+      </c>
+      <c r="B171">
+        <v>4</v>
+      </c>
+      <c r="C171">
+        <v>7</v>
+      </c>
+      <c r="D171">
+        <v>500</v>
+      </c>
+      <c r="E171">
+        <v>0.9</v>
+      </c>
+      <c r="F171">
+        <v>40</v>
+      </c>
+      <c r="G171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172">
+        <v>14</v>
+      </c>
+      <c r="B172">
+        <v>4</v>
+      </c>
+      <c r="C172">
+        <v>28</v>
+      </c>
+      <c r="D172">
+        <v>97</v>
+      </c>
+      <c r="E172">
+        <v>0.3</v>
+      </c>
+      <c r="F172">
+        <v>40</v>
+      </c>
+      <c r="G172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173">
+        <v>15</v>
+      </c>
+      <c r="B173">
+        <v>4</v>
+      </c>
+      <c r="C173">
+        <v>29</v>
+      </c>
+      <c r="D173">
+        <v>123</v>
+      </c>
+      <c r="E173">
+        <v>0.5</v>
+      </c>
+      <c r="F173">
+        <v>40</v>
+      </c>
+      <c r="G173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174">
+        <v>16</v>
+      </c>
+      <c r="B174">
+        <v>4</v>
+      </c>
+      <c r="C174">
+        <v>31</v>
+      </c>
+      <c r="D174">
+        <v>389</v>
+      </c>
+      <c r="E174">
+        <v>0.3</v>
+      </c>
+      <c r="F174">
+        <v>40</v>
+      </c>
+      <c r="G174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175">
+        <v>17</v>
+      </c>
+      <c r="B175">
+        <v>5</v>
+      </c>
+      <c r="C175">
+        <v>6</v>
+      </c>
+      <c r="D175">
+        <v>456</v>
+      </c>
+      <c r="E175">
+        <v>0.6</v>
+      </c>
+      <c r="F175">
+        <v>40</v>
+      </c>
+      <c r="G175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176">
+        <v>18</v>
+      </c>
+      <c r="B176">
+        <v>5</v>
+      </c>
+      <c r="C176">
+        <v>9</v>
+      </c>
+      <c r="D176">
+        <v>567</v>
+      </c>
+      <c r="E176">
+        <v>0.8</v>
+      </c>
+      <c r="F176">
+        <v>40</v>
+      </c>
+      <c r="G176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177">
+        <v>19</v>
+      </c>
+      <c r="B177">
+        <v>6</v>
+      </c>
+      <c r="C177">
+        <v>7</v>
+      </c>
+      <c r="D177">
+        <v>89</v>
+      </c>
+      <c r="E177">
+        <v>0.5</v>
+      </c>
+      <c r="F177">
+        <v>40</v>
+      </c>
+      <c r="G177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178">
+        <v>20</v>
+      </c>
+      <c r="B178">
+        <v>6</v>
+      </c>
+      <c r="C178">
+        <v>8</v>
+      </c>
+      <c r="D178">
+        <v>90</v>
+      </c>
+      <c r="E178">
+        <v>0.5</v>
+      </c>
+      <c r="F178">
+        <v>40</v>
+      </c>
+      <c r="G178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179">
+        <v>21</v>
+      </c>
+      <c r="B179">
+        <v>6</v>
+      </c>
+      <c r="C179">
+        <v>9</v>
+      </c>
+      <c r="D179">
+        <v>200</v>
+      </c>
+      <c r="E179">
+        <v>0.9</v>
+      </c>
+      <c r="F179">
+        <v>40</v>
+      </c>
+      <c r="G179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180">
+        <v>22</v>
+      </c>
+      <c r="B180">
+        <v>7</v>
+      </c>
+      <c r="C180">
+        <v>10</v>
+      </c>
+      <c r="D180">
+        <v>300</v>
+      </c>
+      <c r="E180">
+        <v>0.3</v>
+      </c>
+      <c r="F180">
+        <v>40</v>
+      </c>
+      <c r="G180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181">
+        <v>23</v>
+      </c>
+      <c r="B181">
+        <v>7</v>
+      </c>
+      <c r="C181">
+        <v>31</v>
+      </c>
+      <c r="D181">
+        <v>400</v>
+      </c>
+      <c r="E181">
+        <v>0.7</v>
+      </c>
+      <c r="F181">
+        <v>40</v>
+      </c>
+      <c r="G181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182">
+        <v>24</v>
+      </c>
+      <c r="B182">
+        <v>7</v>
+      </c>
+      <c r="C182">
+        <v>54</v>
+      </c>
+      <c r="D182">
+        <v>500</v>
+      </c>
+      <c r="E182">
+        <v>0.4</v>
+      </c>
+      <c r="F182">
+        <v>40</v>
+      </c>
+      <c r="G182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183">
+        <v>25</v>
+      </c>
+      <c r="B183">
+        <v>8</v>
+      </c>
+      <c r="C183">
+        <v>9</v>
+      </c>
+      <c r="D183">
+        <v>600</v>
+      </c>
+      <c r="E183">
+        <v>0.4</v>
+      </c>
+      <c r="F183">
+        <v>40</v>
+      </c>
+      <c r="G183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184">
+        <v>26</v>
+      </c>
+      <c r="B184">
+        <v>8</v>
+      </c>
+      <c r="C184">
+        <v>11</v>
+      </c>
+      <c r="D184">
+        <v>55</v>
+      </c>
+      <c r="E184">
+        <v>0.6</v>
+      </c>
+      <c r="F184">
+        <v>40</v>
+      </c>
+      <c r="G184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185">
+        <v>27</v>
+      </c>
+      <c r="B185">
+        <v>8</v>
+      </c>
+      <c r="C185">
+        <v>13</v>
+      </c>
+      <c r="D185">
+        <v>99</v>
+      </c>
+      <c r="E185">
+        <v>0.6</v>
+      </c>
+      <c r="F185">
+        <v>40</v>
+      </c>
+      <c r="G185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186">
+        <v>28</v>
+      </c>
+      <c r="B186">
+        <v>8</v>
+      </c>
+      <c r="C186">
+        <v>15</v>
+      </c>
+      <c r="D186">
+        <v>150</v>
+      </c>
+      <c r="E186">
+        <v>0.2</v>
+      </c>
+      <c r="F186">
+        <v>40</v>
+      </c>
+      <c r="G186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187">
+        <v>29</v>
+      </c>
+      <c r="B187">
+        <v>8</v>
+      </c>
+      <c r="C187">
+        <v>17</v>
+      </c>
+      <c r="D187">
+        <v>250</v>
+      </c>
+      <c r="E187">
+        <v>0.8</v>
+      </c>
+      <c r="F187">
+        <v>40</v>
+      </c>
+      <c r="G187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188">
+        <v>30</v>
+      </c>
+      <c r="B188">
+        <v>9</v>
+      </c>
+      <c r="C188">
+        <v>11</v>
+      </c>
+      <c r="D188">
+        <v>350</v>
+      </c>
+      <c r="E188">
+        <v>0.5</v>
+      </c>
+      <c r="F188">
+        <v>40</v>
+      </c>
+      <c r="G188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189">
+        <v>31</v>
+      </c>
+      <c r="B189">
+        <v>9</v>
+      </c>
+      <c r="C189">
+        <v>10</v>
+      </c>
+      <c r="D189">
+        <v>450</v>
+      </c>
+      <c r="E189">
+        <v>0.9</v>
+      </c>
+      <c r="F189">
+        <v>40</v>
+      </c>
+      <c r="G189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190">
+        <v>32</v>
+      </c>
+      <c r="B190">
+        <v>10</v>
+      </c>
+      <c r="C190">
+        <v>12</v>
+      </c>
+      <c r="D190">
+        <v>550</v>
+      </c>
+      <c r="E190">
+        <v>0.3</v>
+      </c>
+      <c r="F190">
+        <v>40</v>
+      </c>
+      <c r="G190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191">
+        <v>33</v>
+      </c>
+      <c r="B191">
+        <v>10</v>
+      </c>
+      <c r="C191">
+        <v>54</v>
+      </c>
+      <c r="D191">
+        <v>51</v>
+      </c>
+      <c r="E191">
+        <v>0.7</v>
+      </c>
+      <c r="F191">
+        <v>40</v>
+      </c>
+      <c r="G191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192">
+        <v>34</v>
+      </c>
+      <c r="B192">
+        <v>10</v>
+      </c>
+      <c r="C192">
+        <v>31</v>
+      </c>
+      <c r="D192">
+        <v>101</v>
+      </c>
+      <c r="E192">
+        <v>0.3</v>
+      </c>
+      <c r="F192">
+        <v>40</v>
+      </c>
+      <c r="G192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193">
+        <v>35</v>
+      </c>
+      <c r="B193">
+        <v>11</v>
+      </c>
+      <c r="C193">
+        <v>12</v>
+      </c>
+      <c r="D193">
+        <v>151</v>
+      </c>
+      <c r="E193">
+        <v>0.4</v>
+      </c>
+      <c r="F193">
+        <v>40</v>
+      </c>
+      <c r="G193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194">
+        <v>36</v>
+      </c>
+      <c r="B194">
+        <v>11</v>
+      </c>
+      <c r="C194">
+        <v>13</v>
+      </c>
+      <c r="D194">
+        <v>251</v>
+      </c>
+      <c r="E194">
+        <v>0.6</v>
+      </c>
+      <c r="F194">
+        <v>40</v>
+      </c>
+      <c r="G194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195">
+        <v>37</v>
+      </c>
+      <c r="B195">
+        <v>12</v>
+      </c>
+      <c r="C195">
+        <v>14</v>
+      </c>
+      <c r="D195">
+        <v>351</v>
+      </c>
+      <c r="E195">
+        <v>0.3</v>
+      </c>
+      <c r="F195">
+        <v>40</v>
+      </c>
+      <c r="G195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196">
+        <v>38</v>
+      </c>
+      <c r="B196">
+        <v>13</v>
+      </c>
+      <c r="C196">
+        <v>14</v>
+      </c>
+      <c r="D196">
+        <v>451</v>
+      </c>
+      <c r="E196">
+        <v>0.4</v>
+      </c>
+      <c r="F196">
+        <v>40</v>
+      </c>
+      <c r="G196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197">
+        <v>39</v>
+      </c>
+      <c r="B197">
+        <v>13</v>
+      </c>
+      <c r="C197">
+        <v>15</v>
+      </c>
+      <c r="D197">
+        <v>551</v>
+      </c>
+      <c r="E197">
+        <v>0.8</v>
+      </c>
+      <c r="F197">
+        <v>40</v>
+      </c>
+      <c r="G197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198">
+        <v>40</v>
+      </c>
+      <c r="B198">
+        <v>14</v>
+      </c>
+      <c r="C198">
+        <v>36</v>
+      </c>
+      <c r="D198">
+        <v>601</v>
+      </c>
+      <c r="E198">
+        <v>0.5</v>
+      </c>
+      <c r="F198">
+        <v>40</v>
+      </c>
+      <c r="G198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199">
+        <v>41</v>
+      </c>
+      <c r="B199">
+        <v>14</v>
+      </c>
+      <c r="C199">
+        <v>16</v>
+      </c>
+      <c r="D199">
+        <v>49</v>
+      </c>
+      <c r="E199">
+        <v>0.9</v>
+      </c>
+      <c r="F199">
+        <v>40</v>
+      </c>
+      <c r="G199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200">
+        <v>42</v>
+      </c>
+      <c r="B200">
+        <v>15</v>
+      </c>
+      <c r="C200">
+        <v>16</v>
+      </c>
+      <c r="D200">
+        <v>99</v>
+      </c>
+      <c r="E200">
+        <v>0.3</v>
+      </c>
+      <c r="F200">
+        <v>40</v>
+      </c>
+      <c r="G200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201">
+        <v>43</v>
+      </c>
+      <c r="B201">
+        <v>15</v>
+      </c>
+      <c r="C201">
+        <v>20</v>
+      </c>
+      <c r="D201">
+        <v>149</v>
+      </c>
+      <c r="E201">
+        <v>0.7</v>
+      </c>
+      <c r="F201">
+        <v>40</v>
+      </c>
+      <c r="G201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202">
+        <v>44</v>
+      </c>
+      <c r="B202">
+        <v>15</v>
+      </c>
+      <c r="C202">
+        <v>17</v>
+      </c>
+      <c r="D202">
+        <v>199</v>
+      </c>
+      <c r="E202">
+        <v>0.4</v>
+      </c>
+      <c r="F202">
+        <v>40</v>
+      </c>
+      <c r="G202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203">
+        <v>45</v>
+      </c>
+      <c r="B203">
+        <v>16</v>
+      </c>
+      <c r="C203">
+        <v>20</v>
+      </c>
+      <c r="D203">
+        <v>249</v>
+      </c>
+      <c r="E203">
+        <v>0.4</v>
+      </c>
+      <c r="F203">
+        <v>40</v>
+      </c>
+      <c r="G203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204">
+        <v>46</v>
+      </c>
+      <c r="B204">
+        <v>16</v>
+      </c>
+      <c r="C204">
+        <v>55</v>
+      </c>
+      <c r="D204">
+        <v>349</v>
+      </c>
+      <c r="E204">
+        <v>0.6</v>
+      </c>
+      <c r="F204">
+        <v>40</v>
+      </c>
+      <c r="G204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205">
+        <v>47</v>
+      </c>
+      <c r="B205">
+        <v>16</v>
+      </c>
+      <c r="C205">
+        <v>37</v>
+      </c>
+      <c r="D205">
+        <v>449</v>
+      </c>
+      <c r="E205">
+        <v>0.3</v>
+      </c>
+      <c r="F205">
+        <v>40</v>
+      </c>
+      <c r="G205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206">
+        <v>48</v>
+      </c>
+      <c r="B206">
+        <v>17</v>
+      </c>
+      <c r="C206">
+        <v>18</v>
+      </c>
+      <c r="D206">
+        <v>599</v>
+      </c>
+      <c r="E206">
+        <v>0.2</v>
+      </c>
+      <c r="F206">
+        <v>40</v>
+      </c>
+      <c r="G206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207">
+        <v>49</v>
+      </c>
+      <c r="B207">
+        <v>17</v>
+      </c>
+      <c r="C207">
+        <v>20</v>
+      </c>
+      <c r="D207">
+        <v>52</v>
+      </c>
+      <c r="E207">
+        <v>0.8</v>
+      </c>
+      <c r="F207">
+        <v>40</v>
+      </c>
+      <c r="G207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208">
+        <v>50</v>
+      </c>
+      <c r="B208">
+        <v>18</v>
+      </c>
+      <c r="C208">
+        <v>20</v>
+      </c>
+      <c r="D208">
+        <v>102</v>
+      </c>
+      <c r="E208">
+        <v>0.5</v>
+      </c>
+      <c r="F208">
+        <v>40</v>
+      </c>
+      <c r="G208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209">
+        <v>51</v>
+      </c>
+      <c r="B209">
+        <v>19</v>
+      </c>
+      <c r="C209">
+        <v>20</v>
+      </c>
+      <c r="D209">
+        <v>152</v>
+      </c>
+      <c r="E209">
+        <v>0.7</v>
+      </c>
+      <c r="F209">
+        <v>40</v>
+      </c>
+      <c r="G209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210">
+        <v>52</v>
+      </c>
+      <c r="B210">
+        <v>19</v>
+      </c>
+      <c r="C210">
+        <v>23</v>
+      </c>
+      <c r="D210">
+        <v>202</v>
+      </c>
+      <c r="E210">
+        <v>0.8</v>
+      </c>
+      <c r="F210">
+        <v>40</v>
+      </c>
+      <c r="G210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211">
+        <v>53</v>
+      </c>
+      <c r="B211">
+        <v>20</v>
+      </c>
+      <c r="C211">
+        <v>21</v>
+      </c>
+      <c r="D211">
+        <v>302</v>
+      </c>
+      <c r="E211">
+        <v>0.4</v>
+      </c>
+      <c r="F211">
+        <v>40</v>
+      </c>
+      <c r="G211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212">
+        <v>54</v>
+      </c>
+      <c r="B212">
+        <v>21</v>
+      </c>
+      <c r="C212">
+        <v>22</v>
+      </c>
+      <c r="D212">
+        <v>402</v>
+      </c>
+      <c r="E212">
+        <v>0.6</v>
+      </c>
+      <c r="F212">
+        <v>40</v>
+      </c>
+      <c r="G212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213">
+        <v>55</v>
+      </c>
+      <c r="B213">
+        <v>21</v>
+      </c>
+      <c r="C213">
+        <v>23</v>
+      </c>
+      <c r="D213">
+        <v>502</v>
+      </c>
+      <c r="E213">
+        <v>0.3</v>
+      </c>
+      <c r="F213">
+        <v>40</v>
+      </c>
+      <c r="G213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214">
+        <v>56</v>
+      </c>
+      <c r="B214">
+        <v>22</v>
+      </c>
+      <c r="C214">
+        <v>56</v>
+      </c>
+      <c r="D214">
+        <v>602</v>
+      </c>
+      <c r="E214">
+        <v>0.4</v>
+      </c>
+      <c r="F214">
+        <v>40</v>
+      </c>
+      <c r="G214">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215">
+        <v>57</v>
+      </c>
+      <c r="B215">
+        <v>23</v>
+      </c>
+      <c r="C215">
+        <v>56</v>
+      </c>
+      <c r="D215">
+        <v>53</v>
+      </c>
+      <c r="E215">
+        <v>0.9</v>
+      </c>
+      <c r="F215">
+        <v>40</v>
+      </c>
+      <c r="G215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216">
+        <v>58</v>
+      </c>
+      <c r="B216">
+        <v>23</v>
+      </c>
+      <c r="C216">
+        <v>24</v>
+      </c>
+      <c r="D216">
+        <v>103</v>
+      </c>
+      <c r="E216">
+        <v>0.5</v>
+      </c>
+      <c r="F216">
+        <v>40</v>
+      </c>
+      <c r="G216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217">
+        <v>59</v>
+      </c>
+      <c r="B217">
+        <v>23</v>
+      </c>
+      <c r="C217">
+        <v>25</v>
+      </c>
+      <c r="D217">
+        <v>153</v>
+      </c>
+      <c r="E217">
+        <v>0.8</v>
+      </c>
+      <c r="F217">
+        <v>40</v>
+      </c>
+      <c r="G217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218">
+        <v>60</v>
+      </c>
+      <c r="B218">
+        <v>24</v>
+      </c>
+      <c r="C218">
+        <v>25</v>
+      </c>
+      <c r="D218">
+        <v>203</v>
+      </c>
+      <c r="E218">
+        <v>0.5</v>
+      </c>
+      <c r="F218">
+        <v>40</v>
+      </c>
+      <c r="G218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219">
+        <v>61</v>
+      </c>
+      <c r="B219">
+        <v>25</v>
+      </c>
+      <c r="C219">
+        <v>56</v>
+      </c>
+      <c r="D219">
+        <v>303</v>
+      </c>
+      <c r="E219">
+        <v>0.7</v>
+      </c>
+      <c r="F219">
+        <v>40</v>
+      </c>
+      <c r="G219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220">
+        <v>62</v>
+      </c>
+      <c r="B220">
+        <v>25</v>
+      </c>
+      <c r="C220">
+        <v>43</v>
+      </c>
+      <c r="D220">
+        <v>403</v>
+      </c>
+      <c r="E220">
+        <v>0.7</v>
+      </c>
+      <c r="F220">
+        <v>40</v>
+      </c>
+      <c r="G220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221">
+        <v>63</v>
+      </c>
+      <c r="B221">
+        <v>25</v>
+      </c>
+      <c r="C221">
+        <v>27</v>
+      </c>
+      <c r="D221">
+        <v>503</v>
+      </c>
+      <c r="E221">
+        <v>0.4</v>
+      </c>
+      <c r="F221">
+        <v>40</v>
+      </c>
+      <c r="G221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222">
+        <v>64</v>
+      </c>
+      <c r="B222">
+        <v>24</v>
+      </c>
+      <c r="C222">
+        <v>26</v>
+      </c>
+      <c r="D222">
+        <v>603</v>
+      </c>
+      <c r="E222">
+        <v>0.6</v>
+      </c>
+      <c r="F222">
+        <v>40</v>
+      </c>
+      <c r="G222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223">
+        <v>65</v>
+      </c>
+      <c r="B223">
+        <v>26</v>
+      </c>
+      <c r="C223">
+        <v>27</v>
+      </c>
+      <c r="D223">
+        <v>54</v>
+      </c>
+      <c r="E223">
+        <v>0.5</v>
+      </c>
+      <c r="F223">
+        <v>40</v>
+      </c>
+      <c r="G223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224">
+        <v>66</v>
+      </c>
+      <c r="B224">
+        <v>26</v>
+      </c>
+      <c r="C224">
+        <v>43</v>
+      </c>
+      <c r="D224">
+        <v>104</v>
+      </c>
+      <c r="E224">
+        <v>0.6</v>
+      </c>
+      <c r="F224">
+        <v>40</v>
+      </c>
+      <c r="G224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225">
+        <v>67</v>
+      </c>
+      <c r="B225">
+        <v>26</v>
+      </c>
+      <c r="C225">
+        <v>52</v>
+      </c>
+      <c r="D225">
+        <v>154</v>
+      </c>
+      <c r="E225">
+        <v>0.9</v>
+      </c>
+      <c r="F225">
+        <v>40</v>
+      </c>
+      <c r="G225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226">
+        <v>68</v>
+      </c>
+      <c r="B226">
+        <v>26</v>
+      </c>
+      <c r="C226">
+        <v>56</v>
+      </c>
+      <c r="D226">
+        <v>204</v>
+      </c>
+      <c r="E226">
+        <v>0.4</v>
+      </c>
+      <c r="F226">
+        <v>40</v>
+      </c>
+      <c r="G226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227">
+        <v>69</v>
+      </c>
+      <c r="B227">
+        <v>26</v>
+      </c>
+      <c r="C227">
+        <v>53</v>
+      </c>
+      <c r="D227">
+        <v>304</v>
+      </c>
+      <c r="E227">
+        <v>0.8</v>
+      </c>
+      <c r="F227">
+        <v>40</v>
+      </c>
+      <c r="G227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228">
+        <v>70</v>
+      </c>
+      <c r="B228">
+        <v>28</v>
+      </c>
+      <c r="C228">
+        <v>29</v>
+      </c>
+      <c r="D228">
+        <v>404</v>
+      </c>
+      <c r="E228">
+        <v>0.4</v>
+      </c>
+      <c r="F228">
+        <v>40</v>
+      </c>
+      <c r="G228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229">
+        <v>71</v>
+      </c>
+      <c r="B229">
+        <v>28</v>
+      </c>
+      <c r="C229">
+        <v>30</v>
+      </c>
+      <c r="D229">
+        <v>504</v>
+      </c>
+      <c r="E229">
+        <v>0.7</v>
+      </c>
+      <c r="F229">
+        <v>40</v>
+      </c>
+      <c r="G229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230">
+        <v>72</v>
+      </c>
+      <c r="B230">
+        <v>29</v>
+      </c>
+      <c r="C230">
+        <v>31</v>
+      </c>
+      <c r="D230">
+        <v>604</v>
+      </c>
+      <c r="E230">
+        <v>0.4</v>
+      </c>
+      <c r="F230">
+        <v>40</v>
+      </c>
+      <c r="G230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231">
+        <v>73</v>
+      </c>
+      <c r="B231">
+        <v>30</v>
+      </c>
+      <c r="C231">
+        <v>32</v>
+      </c>
+      <c r="D231">
+        <v>70</v>
+      </c>
+      <c r="E231">
+        <v>0.9</v>
+      </c>
+      <c r="F231">
+        <v>40</v>
+      </c>
+      <c r="G231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232">
+        <v>74</v>
+      </c>
+      <c r="B232">
+        <v>31</v>
+      </c>
+      <c r="C232">
+        <v>32</v>
+      </c>
+      <c r="D232">
+        <v>120</v>
+      </c>
+      <c r="E232">
+        <v>0.6</v>
+      </c>
+      <c r="F232">
+        <v>40</v>
+      </c>
+      <c r="G232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233">
+        <v>75</v>
+      </c>
+      <c r="B233">
+        <v>31</v>
+      </c>
+      <c r="C233">
+        <v>33</v>
+      </c>
+      <c r="D233">
+        <v>180</v>
+      </c>
+      <c r="E233">
+        <v>0.5</v>
+      </c>
+      <c r="F233">
+        <v>40</v>
+      </c>
+      <c r="G233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234">
+        <v>76</v>
+      </c>
+      <c r="B234">
+        <v>32</v>
+      </c>
+      <c r="C234">
+        <v>33</v>
+      </c>
+      <c r="D234">
+        <v>240</v>
+      </c>
+      <c r="E234">
+        <v>0.5</v>
+      </c>
+      <c r="F234">
+        <v>40</v>
+      </c>
+      <c r="G234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235">
+        <v>77</v>
+      </c>
+      <c r="B235">
+        <v>31</v>
+      </c>
+      <c r="C235">
+        <v>54</v>
+      </c>
+      <c r="D235">
+        <v>300</v>
+      </c>
+      <c r="E235">
+        <v>0.6</v>
+      </c>
+      <c r="F235">
+        <v>40</v>
+      </c>
+      <c r="G235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236">
+        <v>78</v>
+      </c>
+      <c r="B236">
+        <v>33</v>
+      </c>
+      <c r="C236">
+        <v>34</v>
+      </c>
+      <c r="D236">
+        <v>360</v>
+      </c>
+      <c r="E236">
+        <v>0.8</v>
+      </c>
+      <c r="F236">
+        <v>40</v>
+      </c>
+      <c r="G236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237">
+        <v>79</v>
+      </c>
+      <c r="B237">
+        <v>33</v>
+      </c>
+      <c r="C237">
+        <v>35</v>
+      </c>
+      <c r="D237">
+        <v>420</v>
+      </c>
+      <c r="E237">
+        <v>0.8</v>
+      </c>
+      <c r="F237">
+        <v>40</v>
+      </c>
+      <c r="G237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238">
+        <v>80</v>
+      </c>
+      <c r="B238">
+        <v>33</v>
+      </c>
+      <c r="C238">
+        <v>54</v>
+      </c>
+      <c r="D238">
+        <v>480</v>
+      </c>
+      <c r="E238">
+        <v>0.4</v>
+      </c>
+      <c r="F238">
+        <v>40</v>
+      </c>
+      <c r="G238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239">
+        <v>81</v>
+      </c>
+      <c r="B239">
+        <v>34</v>
+      </c>
+      <c r="C239">
+        <v>35</v>
+      </c>
+      <c r="D239">
+        <v>540</v>
+      </c>
+      <c r="E239">
+        <v>0.7</v>
+      </c>
+      <c r="F239">
+        <v>40</v>
+      </c>
+      <c r="G239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240">
+        <v>82</v>
+      </c>
+      <c r="B240">
+        <v>34</v>
+      </c>
+      <c r="C240">
+        <v>36</v>
+      </c>
+      <c r="D240">
+        <v>600</v>
+      </c>
+      <c r="E240">
+        <v>0.2</v>
+      </c>
+      <c r="F240">
+        <v>40</v>
+      </c>
+      <c r="G240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241">
+        <v>83</v>
+      </c>
+      <c r="B241">
+        <v>35</v>
+      </c>
+      <c r="C241">
+        <v>46</v>
+      </c>
+      <c r="D241">
+        <v>65</v>
+      </c>
+      <c r="E241">
+        <v>0.9</v>
+      </c>
+      <c r="F241">
+        <v>40</v>
+      </c>
+      <c r="G241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242">
+        <v>84</v>
+      </c>
+      <c r="B242">
+        <v>35</v>
+      </c>
+      <c r="C242">
+        <v>57</v>
+      </c>
+      <c r="D242">
+        <v>115</v>
+      </c>
+      <c r="E242">
+        <v>0.3</v>
+      </c>
+      <c r="F242">
+        <v>40</v>
+      </c>
+      <c r="G242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243">
+        <v>85</v>
+      </c>
+      <c r="B243">
+        <v>36</v>
+      </c>
+      <c r="C243">
+        <v>37</v>
+      </c>
+      <c r="D243">
+        <v>165</v>
+      </c>
+      <c r="E243">
+        <v>0.5</v>
+      </c>
+      <c r="F243">
+        <v>40</v>
+      </c>
+      <c r="G243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244">
+        <v>86</v>
+      </c>
+      <c r="B244">
+        <v>36</v>
+      </c>
+      <c r="C244">
+        <v>38</v>
+      </c>
+      <c r="D244">
+        <v>215</v>
+      </c>
+      <c r="E244">
+        <v>0.6</v>
+      </c>
+      <c r="F244">
+        <v>40</v>
+      </c>
+      <c r="G244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245">
+        <v>87</v>
+      </c>
+      <c r="B245">
+        <v>37</v>
+      </c>
+      <c r="C245">
+        <v>38</v>
+      </c>
+      <c r="D245">
+        <v>265</v>
+      </c>
+      <c r="E245">
+        <v>0.6</v>
+      </c>
+      <c r="F245">
+        <v>40</v>
+      </c>
+      <c r="G245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246">
+        <v>88</v>
+      </c>
+      <c r="B246">
+        <v>37</v>
+      </c>
+      <c r="C246">
+        <v>55</v>
+      </c>
+      <c r="D246">
+        <v>315</v>
+      </c>
+      <c r="E246">
+        <v>0.8</v>
+      </c>
+      <c r="F246">
+        <v>40</v>
+      </c>
+      <c r="G246">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247">
+        <v>89</v>
+      </c>
+      <c r="B247">
+        <v>37</v>
+      </c>
+      <c r="C247">
+        <v>39</v>
+      </c>
+      <c r="D247">
+        <v>365</v>
+      </c>
+      <c r="E247">
+        <v>0.7</v>
+      </c>
+      <c r="F247">
+        <v>40</v>
+      </c>
+      <c r="G247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248">
+        <v>90</v>
+      </c>
+      <c r="B248">
+        <v>38</v>
+      </c>
+      <c r="C248">
+        <v>39</v>
+      </c>
+      <c r="D248">
+        <v>415</v>
+      </c>
+      <c r="E248">
+        <v>0.5</v>
+      </c>
+      <c r="F248">
+        <v>40</v>
+      </c>
+      <c r="G248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249">
+        <v>91</v>
+      </c>
+      <c r="B249">
+        <v>39</v>
+      </c>
+      <c r="C249">
+        <v>55</v>
+      </c>
+      <c r="D249">
+        <v>465</v>
+      </c>
+      <c r="E249">
+        <v>0.9</v>
+      </c>
+      <c r="F249">
+        <v>40</v>
+      </c>
+      <c r="G249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250">
+        <v>92</v>
+      </c>
+      <c r="B250">
+        <v>39</v>
+      </c>
+      <c r="C250">
+        <v>40</v>
+      </c>
+      <c r="D250">
+        <v>515</v>
+      </c>
+      <c r="E250">
+        <v>0.3</v>
+      </c>
+      <c r="F250">
+        <v>40</v>
+      </c>
+      <c r="G250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251">
+        <v>93</v>
+      </c>
+      <c r="B251">
+        <v>38</v>
+      </c>
+      <c r="C251">
+        <v>48</v>
+      </c>
+      <c r="D251">
+        <v>61</v>
+      </c>
+      <c r="E251">
+        <v>0.7</v>
+      </c>
+      <c r="F251">
+        <v>40</v>
+      </c>
+      <c r="G251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252">
+        <v>94</v>
+      </c>
+      <c r="B252">
+        <v>38</v>
+      </c>
+      <c r="C252">
+        <v>57</v>
+      </c>
+      <c r="D252">
+        <v>111</v>
+      </c>
+      <c r="E252">
+        <v>0.4</v>
+      </c>
+      <c r="F252">
+        <v>40</v>
+      </c>
+      <c r="G252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253">
+        <v>95</v>
+      </c>
+      <c r="B253">
+        <v>39</v>
+      </c>
+      <c r="C253">
+        <v>50</v>
+      </c>
+      <c r="D253">
+        <v>161</v>
+      </c>
+      <c r="E253">
+        <v>0.6</v>
+      </c>
+      <c r="F253">
+        <v>40</v>
+      </c>
+      <c r="G253">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254">
+        <v>96</v>
+      </c>
+      <c r="B254">
+        <v>40</v>
+      </c>
+      <c r="C254">
+        <v>41</v>
+      </c>
+      <c r="D254">
+        <v>211</v>
+      </c>
+      <c r="E254">
+        <v>0.9</v>
+      </c>
+      <c r="F254">
+        <v>40</v>
+      </c>
+      <c r="G254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255">
+        <v>97</v>
+      </c>
+      <c r="B255">
+        <v>40</v>
+      </c>
+      <c r="C255">
+        <v>42</v>
+      </c>
+      <c r="D255">
+        <v>261</v>
+      </c>
+      <c r="E255">
+        <v>0.8</v>
+      </c>
+      <c r="F255">
+        <v>40</v>
+      </c>
+      <c r="G255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256">
+        <v>98</v>
+      </c>
+      <c r="B256">
+        <v>40</v>
+      </c>
+      <c r="C256">
+        <v>51</v>
+      </c>
+      <c r="D256">
+        <v>311</v>
+      </c>
+      <c r="E256">
+        <v>0.5</v>
+      </c>
+      <c r="F256">
+        <v>40</v>
+      </c>
+      <c r="G256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257">
+        <v>99</v>
+      </c>
+      <c r="B257">
+        <v>41</v>
+      </c>
+      <c r="C257">
+        <v>42</v>
+      </c>
+      <c r="D257">
+        <v>361</v>
+      </c>
+      <c r="E257">
+        <v>0.6</v>
+      </c>
+      <c r="F257">
+        <v>40</v>
+      </c>
+      <c r="G257">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258">
+        <v>100</v>
+      </c>
+      <c r="B258">
+        <v>41</v>
+      </c>
+      <c r="C258">
+        <v>56</v>
+      </c>
+      <c r="D258">
+        <v>411</v>
+      </c>
+      <c r="E258">
+        <v>0.6</v>
+      </c>
+      <c r="F258">
+        <v>40</v>
+      </c>
+      <c r="G258">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259">
+        <v>101</v>
+      </c>
+      <c r="B259">
+        <v>41</v>
+      </c>
+      <c r="C259">
+        <v>43</v>
+      </c>
+      <c r="D259">
+        <v>461</v>
+      </c>
+      <c r="E259">
+        <v>0.8</v>
+      </c>
+      <c r="F259">
+        <v>40</v>
+      </c>
+      <c r="G259">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260">
+        <v>102</v>
+      </c>
+      <c r="B260">
+        <v>42</v>
+      </c>
+      <c r="C260">
+        <v>51</v>
+      </c>
+      <c r="D260">
+        <v>511</v>
+      </c>
+      <c r="E260">
+        <v>0.9</v>
+      </c>
+      <c r="F260">
+        <v>40</v>
+      </c>
+      <c r="G260">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261">
+        <v>103</v>
+      </c>
+      <c r="B261">
+        <v>42</v>
+      </c>
+      <c r="C261">
+        <v>43</v>
+      </c>
+      <c r="D261">
+        <v>56</v>
+      </c>
+      <c r="E261">
+        <v>0.9</v>
+      </c>
+      <c r="F261">
+        <v>40</v>
+      </c>
+      <c r="G261">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262">
+        <v>104</v>
+      </c>
+      <c r="B262">
+        <v>42</v>
+      </c>
+      <c r="C262">
+        <v>53</v>
+      </c>
+      <c r="D262">
+        <v>106</v>
+      </c>
+      <c r="E262">
+        <v>0.7</v>
+      </c>
+      <c r="F262">
+        <v>40</v>
+      </c>
+      <c r="G262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263">
+        <v>105</v>
+      </c>
+      <c r="B263">
+        <v>42</v>
+      </c>
+      <c r="C263">
+        <v>50</v>
+      </c>
+      <c r="D263">
+        <v>156</v>
+      </c>
+      <c r="E263">
+        <v>0.2</v>
+      </c>
+      <c r="F263">
+        <v>40</v>
+      </c>
+      <c r="G263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264">
+        <v>106</v>
+      </c>
+      <c r="B264">
+        <v>40</v>
+      </c>
+      <c r="C264">
+        <v>50</v>
+      </c>
+      <c r="D264">
+        <v>206</v>
+      </c>
+      <c r="E264">
+        <v>0.9</v>
+      </c>
+      <c r="F264">
+        <v>40</v>
+      </c>
+      <c r="G264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265">
+        <v>107</v>
+      </c>
+      <c r="B265">
+        <v>43</v>
+      </c>
+      <c r="C265">
+        <v>56</v>
+      </c>
+      <c r="D265">
+        <v>256</v>
+      </c>
+      <c r="E265">
+        <v>0.3</v>
+      </c>
+      <c r="F265">
+        <v>40</v>
+      </c>
+      <c r="G265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266">
+        <v>108</v>
+      </c>
+      <c r="B266">
+        <v>43</v>
+      </c>
+      <c r="C266">
+        <v>52</v>
+      </c>
+      <c r="D266">
+        <v>306</v>
+      </c>
+      <c r="E266">
+        <v>0.5</v>
+      </c>
+      <c r="F266">
+        <v>40</v>
+      </c>
+      <c r="G266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267">
+        <v>109</v>
+      </c>
+      <c r="B267">
+        <v>43</v>
+      </c>
+      <c r="C267">
+        <v>53</v>
+      </c>
+      <c r="D267">
+        <v>87</v>
+      </c>
+      <c r="E267">
+        <v>0.3</v>
+      </c>
+      <c r="F267">
+        <v>40</v>
+      </c>
+      <c r="G267">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268">
+        <v>110</v>
+      </c>
+      <c r="B268">
+        <v>40</v>
+      </c>
+      <c r="C268">
+        <v>48</v>
+      </c>
+      <c r="D268">
+        <v>50</v>
+      </c>
+      <c r="E268">
+        <v>0.6</v>
+      </c>
+      <c r="F268">
+        <v>40</v>
+      </c>
+      <c r="G268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269">
+        <v>111</v>
+      </c>
+      <c r="B269">
+        <v>44</v>
+      </c>
+      <c r="C269">
+        <v>46</v>
+      </c>
+      <c r="D269">
+        <v>199</v>
+      </c>
+      <c r="E269">
+        <v>0.8</v>
+      </c>
+      <c r="F269">
+        <v>40</v>
+      </c>
+      <c r="G269">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270">
+        <v>112</v>
+      </c>
+      <c r="B270">
+        <v>44</v>
+      </c>
+      <c r="C270">
+        <v>47</v>
+      </c>
+      <c r="D270">
+        <v>245</v>
+      </c>
+      <c r="E270">
+        <v>0.5</v>
+      </c>
+      <c r="F270">
+        <v>40</v>
+      </c>
+      <c r="G270">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271">
+        <v>113</v>
+      </c>
+      <c r="B271">
+        <v>44</v>
+      </c>
+      <c r="C271">
+        <v>30</v>
+      </c>
+      <c r="D271">
+        <v>346</v>
+      </c>
+      <c r="E271">
+        <v>0.5</v>
+      </c>
+      <c r="F271">
+        <v>40</v>
+      </c>
+      <c r="G271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272">
+        <v>114</v>
+      </c>
+      <c r="B272">
+        <v>45</v>
+      </c>
+      <c r="C272">
+        <v>32</v>
+      </c>
+      <c r="D272">
+        <v>432</v>
+      </c>
+      <c r="E272">
+        <v>0.9</v>
+      </c>
+      <c r="F272">
+        <v>40</v>
+      </c>
+      <c r="G272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273">
+        <v>115</v>
+      </c>
+      <c r="B273">
+        <v>45</v>
+      </c>
+      <c r="C273">
+        <v>46</v>
+      </c>
+      <c r="D273">
+        <v>561</v>
+      </c>
+      <c r="E273">
+        <v>0.3</v>
+      </c>
+      <c r="F273">
+        <v>40</v>
+      </c>
+      <c r="G273">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274">
+        <v>116</v>
+      </c>
+      <c r="B274">
+        <v>46</v>
+      </c>
+      <c r="C274">
+        <v>47</v>
+      </c>
+      <c r="D274">
+        <v>600</v>
+      </c>
+      <c r="E274">
+        <v>0.7</v>
+      </c>
+      <c r="F274">
+        <v>40</v>
+      </c>
+      <c r="G274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275">
+        <v>117</v>
+      </c>
+      <c r="B275">
+        <v>46</v>
+      </c>
+      <c r="C275">
+        <v>57</v>
+      </c>
+      <c r="D275">
+        <v>45</v>
+      </c>
+      <c r="E275">
+        <v>0.4</v>
+      </c>
+      <c r="F275">
+        <v>40</v>
+      </c>
+      <c r="G275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276">
+        <v>118</v>
+      </c>
+      <c r="B276">
+        <v>46</v>
+      </c>
+      <c r="C276">
+        <v>48</v>
+      </c>
+      <c r="D276">
+        <v>179</v>
+      </c>
+      <c r="E276">
+        <v>0.4</v>
+      </c>
+      <c r="F276">
+        <v>40</v>
+      </c>
+      <c r="G276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277">
+        <v>119</v>
+      </c>
+      <c r="B277">
+        <v>46</v>
+      </c>
+      <c r="C277">
+        <v>49</v>
+      </c>
+      <c r="D277">
+        <v>201</v>
+      </c>
+      <c r="E277">
+        <v>0.6</v>
+      </c>
+      <c r="F277">
+        <v>40</v>
+      </c>
+      <c r="G277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278">
+        <v>120</v>
+      </c>
+      <c r="B278">
+        <v>46</v>
+      </c>
+      <c r="C278">
+        <v>38</v>
+      </c>
+      <c r="D278">
+        <v>321</v>
+      </c>
+      <c r="E278">
+        <v>0.6</v>
+      </c>
+      <c r="F278">
+        <v>40</v>
+      </c>
+      <c r="G278">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279">
+        <v>121</v>
+      </c>
+      <c r="B279">
+        <v>47</v>
+      </c>
+      <c r="C279">
+        <v>48</v>
+      </c>
+      <c r="D279">
+        <v>490</v>
+      </c>
+      <c r="E279">
+        <v>0.2</v>
+      </c>
+      <c r="F279">
+        <v>40</v>
+      </c>
+      <c r="G279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280">
+        <v>122</v>
+      </c>
+      <c r="B280">
+        <v>47</v>
+      </c>
+      <c r="C280">
+        <v>49</v>
+      </c>
+      <c r="D280">
+        <v>500</v>
+      </c>
+      <c r="E280">
+        <v>0.8</v>
+      </c>
+      <c r="F280">
+        <v>40</v>
+      </c>
+      <c r="G280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281">
+        <v>123</v>
+      </c>
+      <c r="B281">
+        <v>48</v>
+      </c>
+      <c r="C281">
+        <v>49</v>
+      </c>
+      <c r="D281">
+        <v>97</v>
+      </c>
+      <c r="E281">
+        <v>0.5</v>
+      </c>
+      <c r="F281">
+        <v>40</v>
+      </c>
+      <c r="G281">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282">
+        <v>124</v>
+      </c>
+      <c r="B282">
+        <v>48</v>
+      </c>
+      <c r="C282">
+        <v>50</v>
+      </c>
+      <c r="D282">
+        <v>123</v>
+      </c>
+      <c r="E282">
+        <v>0.9</v>
+      </c>
+      <c r="F282">
+        <v>40</v>
+      </c>
+      <c r="G282">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283">
+        <v>125</v>
+      </c>
+      <c r="B283">
+        <v>49</v>
+      </c>
+      <c r="C283">
+        <v>50</v>
+      </c>
+      <c r="D283">
+        <v>389</v>
+      </c>
+      <c r="E283">
+        <v>0.3</v>
+      </c>
+      <c r="F283">
+        <v>40</v>
+      </c>
+      <c r="G283">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284">
+        <v>126</v>
+      </c>
+      <c r="B284">
+        <v>49</v>
+      </c>
+      <c r="C284">
+        <v>57</v>
+      </c>
+      <c r="D284">
+        <v>456</v>
+      </c>
+      <c r="E284">
+        <v>0.7</v>
+      </c>
+      <c r="F284">
+        <v>40</v>
+      </c>
+      <c r="G284">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285">
+        <v>127</v>
+      </c>
+      <c r="B285">
+        <v>50</v>
+      </c>
+      <c r="C285">
+        <v>51</v>
+      </c>
+      <c r="D285">
+        <v>567</v>
+      </c>
+      <c r="E285">
+        <v>0.3</v>
+      </c>
+      <c r="F285">
+        <v>40</v>
+      </c>
+      <c r="G285">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286">
+        <v>128</v>
+      </c>
+      <c r="B286">
+        <v>50</v>
+      </c>
+      <c r="C286">
+        <v>53</v>
+      </c>
+      <c r="D286">
+        <v>89</v>
+      </c>
+      <c r="E286">
+        <v>0.4</v>
+      </c>
+      <c r="F286">
+        <v>40</v>
+      </c>
+      <c r="G286">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287">
+        <v>129</v>
+      </c>
+      <c r="B287">
+        <v>51</v>
+      </c>
+      <c r="C287">
+        <v>52</v>
+      </c>
+      <c r="D287">
+        <v>90</v>
+      </c>
+      <c r="E287">
+        <v>0.6</v>
+      </c>
+      <c r="F287">
+        <v>40</v>
+      </c>
+      <c r="G287">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288">
+        <v>130</v>
+      </c>
+      <c r="B288">
+        <v>51</v>
+      </c>
+      <c r="C288">
+        <v>53</v>
+      </c>
+      <c r="D288">
+        <v>200</v>
+      </c>
+      <c r="E288">
+        <v>0.3</v>
+      </c>
+      <c r="F288">
+        <v>40</v>
+      </c>
+      <c r="G288">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289">
+        <v>131</v>
+      </c>
+      <c r="B289">
+        <v>52</v>
+      </c>
+      <c r="C289">
+        <v>53</v>
+      </c>
+      <c r="D289">
+        <v>300</v>
+      </c>
+      <c r="E289">
+        <v>0.4</v>
+      </c>
+      <c r="F289">
+        <v>40</v>
+      </c>
+      <c r="G289">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290">
+        <v>132</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="C290">
+        <v>7</v>
+      </c>
+      <c r="D290">
+        <v>400</v>
+      </c>
+      <c r="E290">
+        <v>0.8</v>
+      </c>
+      <c r="F290">
+        <v>40</v>
+      </c>
+      <c r="G290">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291">
+        <v>133</v>
+      </c>
+      <c r="B291">
+        <v>36</v>
+      </c>
+      <c r="C291">
+        <v>54</v>
+      </c>
+      <c r="D291">
+        <v>500</v>
+      </c>
+      <c r="E291">
+        <v>0.5</v>
+      </c>
+      <c r="F291">
+        <v>40</v>
+      </c>
+      <c r="G291">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292">
+        <v>134</v>
+      </c>
+      <c r="B292">
+        <v>18</v>
+      </c>
+      <c r="C292">
+        <v>19</v>
+      </c>
+      <c r="D292">
+        <v>600</v>
+      </c>
+      <c r="E292">
+        <v>0.9</v>
+      </c>
+      <c r="F292">
+        <v>40</v>
+      </c>
+      <c r="G292">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293">
+        <v>135</v>
+      </c>
+      <c r="B293">
+        <v>42</v>
+      </c>
+      <c r="C293">
+        <v>56</v>
+      </c>
+      <c r="D293">
+        <v>55</v>
+      </c>
+      <c r="E293">
+        <v>0.3</v>
+      </c>
+      <c r="F293">
+        <v>40</v>
+      </c>
+      <c r="G293">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294">
+        <v>136</v>
+      </c>
+      <c r="B294">
+        <v>20</v>
+      </c>
+      <c r="C294">
+        <v>22</v>
+      </c>
+      <c r="D294">
+        <v>99</v>
+      </c>
+      <c r="E294">
+        <v>0.7</v>
+      </c>
+      <c r="F294">
+        <v>40</v>
+      </c>
+      <c r="G294">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295">
+        <v>137</v>
+      </c>
+      <c r="B295">
+        <v>22</v>
+      </c>
+      <c r="C295">
+        <v>55</v>
+      </c>
+      <c r="D295">
+        <v>150</v>
+      </c>
+      <c r="E295">
+        <v>0.4</v>
+      </c>
+      <c r="F295">
+        <v>40</v>
+      </c>
+      <c r="G295">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296">
+        <v>138</v>
+      </c>
+      <c r="B296">
+        <v>22</v>
+      </c>
+      <c r="C296">
+        <v>40</v>
+      </c>
+      <c r="D296">
+        <v>250</v>
+      </c>
+      <c r="E296">
+        <v>0.4</v>
+      </c>
+      <c r="F296">
+        <v>40</v>
+      </c>
+      <c r="G296">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297">
+        <v>139</v>
+      </c>
+      <c r="B297">
+        <v>4</v>
+      </c>
+      <c r="C297">
+        <v>28</v>
+      </c>
+      <c r="D297">
+        <v>350</v>
+      </c>
+      <c r="E297">
+        <v>0.6</v>
+      </c>
+      <c r="F297">
+        <v>40</v>
+      </c>
+      <c r="G297">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298">
+        <v>140</v>
+      </c>
+      <c r="B298">
+        <v>4</v>
+      </c>
+      <c r="C298">
+        <v>58</v>
+      </c>
+      <c r="D298">
+        <v>450</v>
+      </c>
+      <c r="E298">
+        <v>0.3</v>
+      </c>
+      <c r="F298">
+        <v>40</v>
+      </c>
+      <c r="G298">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299">
+        <v>141</v>
+      </c>
+      <c r="B299">
+        <v>9</v>
+      </c>
+      <c r="C299">
+        <v>58</v>
+      </c>
+      <c r="D299">
+        <v>550</v>
+      </c>
+      <c r="E299">
+        <v>0.2</v>
+      </c>
+      <c r="F299">
+        <v>40</v>
+      </c>
+      <c r="G299">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300">
+        <v>142</v>
+      </c>
+      <c r="B300">
+        <v>54</v>
+      </c>
+      <c r="C300">
+        <v>58</v>
+      </c>
+      <c r="D300">
+        <v>51</v>
+      </c>
+      <c r="E300">
+        <v>0.8</v>
+      </c>
+      <c r="F300">
+        <v>40</v>
+      </c>
+      <c r="G300">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301">
+        <v>143</v>
+      </c>
+      <c r="B301">
+        <v>7</v>
+      </c>
+      <c r="C301">
+        <v>58</v>
+      </c>
+      <c r="D301">
+        <v>101</v>
+      </c>
+      <c r="E301">
+        <v>0.5</v>
+      </c>
+      <c r="F301">
+        <v>40</v>
+      </c>
+      <c r="G301">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302">
+        <v>144</v>
+      </c>
+      <c r="B302">
+        <v>31</v>
+      </c>
+      <c r="C302">
+        <v>58</v>
+      </c>
+      <c r="D302">
+        <v>151</v>
+      </c>
+      <c r="E302">
+        <v>0.7</v>
+      </c>
+      <c r="F302">
+        <v>40</v>
+      </c>
+      <c r="G302">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303">
+        <v>145</v>
+      </c>
+      <c r="B303">
+        <v>23</v>
+      </c>
+      <c r="C303">
+        <v>59</v>
+      </c>
+      <c r="D303">
+        <v>251</v>
+      </c>
+      <c r="E303">
+        <v>0.8</v>
+      </c>
+      <c r="F303">
+        <v>40</v>
+      </c>
+      <c r="G303">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304">
+        <v>146</v>
+      </c>
+      <c r="B304">
+        <v>21</v>
+      </c>
+      <c r="C304">
+        <v>59</v>
+      </c>
+      <c r="D304">
+        <v>351</v>
+      </c>
+      <c r="E304">
+        <v>0.4</v>
+      </c>
+      <c r="F304">
+        <v>40</v>
+      </c>
+      <c r="G304">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305">
+        <v>147</v>
+      </c>
+      <c r="B305">
+        <v>19</v>
+      </c>
+      <c r="C305">
+        <v>59</v>
+      </c>
+      <c r="D305">
+        <v>451</v>
+      </c>
+      <c r="E305">
+        <v>0.6</v>
+      </c>
+      <c r="F305">
+        <v>40</v>
+      </c>
+      <c r="G305">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306">
+        <v>148</v>
+      </c>
+      <c r="B306">
+        <v>27</v>
+      </c>
+      <c r="C306">
+        <v>60</v>
+      </c>
+      <c r="D306">
+        <v>551</v>
+      </c>
+      <c r="E306">
+        <v>0.3</v>
+      </c>
+      <c r="F306">
+        <v>40</v>
+      </c>
+      <c r="G306">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307">
+        <v>149</v>
+      </c>
+      <c r="B307">
+        <v>56</v>
+      </c>
+      <c r="C307">
+        <v>60</v>
+      </c>
+      <c r="D307">
+        <v>601</v>
+      </c>
+      <c r="E307">
+        <v>0.4</v>
+      </c>
+      <c r="F307">
+        <v>40</v>
+      </c>
+      <c r="G307">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308">
+        <v>150</v>
+      </c>
+      <c r="B308">
+        <v>25</v>
+      </c>
+      <c r="C308">
+        <v>60</v>
+      </c>
+      <c r="D308">
+        <v>49</v>
+      </c>
+      <c r="E308">
+        <v>0.9</v>
+      </c>
+      <c r="F308">
+        <v>40</v>
+      </c>
+      <c r="G308">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309">
+        <v>151</v>
+      </c>
+      <c r="B309">
+        <v>43</v>
+      </c>
+      <c r="C309">
+        <v>60</v>
+      </c>
+      <c r="D309">
+        <v>99</v>
+      </c>
+      <c r="E309">
+        <v>0.5</v>
+      </c>
+      <c r="F309">
+        <v>40</v>
+      </c>
+      <c r="G309">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310">
+        <v>152</v>
+      </c>
+      <c r="B310">
+        <v>55</v>
+      </c>
+      <c r="C310">
+        <v>61</v>
+      </c>
+      <c r="D310">
+        <v>149</v>
+      </c>
+      <c r="E310">
+        <v>0.8</v>
+      </c>
+      <c r="F310">
+        <v>40</v>
+      </c>
+      <c r="G310">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311">
+        <v>153</v>
+      </c>
+      <c r="B311">
+        <v>49</v>
+      </c>
+      <c r="C311">
+        <v>61</v>
+      </c>
+      <c r="D311">
+        <v>199</v>
+      </c>
+      <c r="E311">
+        <v>0.5</v>
+      </c>
+      <c r="F311">
+        <v>40</v>
+      </c>
+      <c r="G311">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312">
+        <v>154</v>
+      </c>
+      <c r="B312">
+        <v>50</v>
+      </c>
+      <c r="C312">
+        <v>61</v>
+      </c>
+      <c r="D312">
+        <v>249</v>
+      </c>
+      <c r="E312">
+        <v>0.7</v>
+      </c>
+      <c r="F312">
+        <v>40</v>
+      </c>
+      <c r="G312">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313">
+        <v>155</v>
+      </c>
+      <c r="B313">
+        <v>48</v>
+      </c>
+      <c r="C313">
+        <v>61</v>
+      </c>
+      <c r="D313">
+        <v>349</v>
+      </c>
+      <c r="E313">
+        <v>0.7</v>
+      </c>
+      <c r="F313">
+        <v>40</v>
+      </c>
+      <c r="G313">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
